--- a/Plant_soil.xlsx
+++ b/Plant_soil.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C78FA-E01F-47AD-8C51-D8AD1565F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B623A98-8757-4384-ABD1-5271F01F52A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2715" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,70 @@
   </si>
   <si>
     <t>CK1</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>g/kg</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <r>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>total numbe of root branches</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Units/Liter</t>
+  </si>
+  <si>
+    <t>mg/kg</t>
   </si>
 </sst>
 </file>
@@ -163,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +247,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -521,7 +594,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2484,12 +2557,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plant_soil.xlsx
+++ b/Plant_soil.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B623A98-8757-4384-ABD1-5271F01F52A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +54,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>AB5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>aboveground biomass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,120 +132,35 @@
   <si>
     <t>UE</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB5</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>CK1</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>g/kg</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <r>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>total numbe of root branches</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Units/Liter</t>
-  </si>
-  <si>
-    <t>mg/kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,12 +189,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -297,17 +202,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +247,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -417,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,81 +492,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>1</v>
@@ -682,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,9 +662,9 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1.28</v>
@@ -838,9 +740,9 @@
         <v>42.39</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1.94</v>
@@ -916,9 +818,9 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1.8</v>
@@ -994,9 +896,9 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>2.0699999999999998</v>
@@ -1072,9 +974,9 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>1.71</v>
@@ -1150,7 +1052,7 @@
         <v>43.17</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1228,9 +1130,9 @@
         <v>42.94</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1306,9 +1208,9 @@
         <v>43.41</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>2.65</v>
@@ -1384,9 +1286,9 @@
         <v>42.76</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>2.71</v>
@@ -1462,9 +1364,9 @@
         <v>43.03</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>3.11</v>
@@ -1540,9 +1442,9 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>2.38</v>
@@ -1618,7 +1520,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1696,9 +1598,9 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>1.78</v>
@@ -1774,9 +1676,9 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>1.63</v>
@@ -1852,9 +1754,9 @@
         <v>42.49</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>1.66</v>
@@ -1930,9 +1832,9 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>1.58</v>
@@ -2008,9 +1910,9 @@
         <v>42.46</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>1.69</v>
@@ -2086,9 +1988,9 @@
         <v>42.57</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>3.04</v>
@@ -2163,9 +2065,9 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5</v>
       </c>
       <c r="B21" s="1">
         <v>3.68</v>
@@ -2240,9 +2142,9 @@
         <v>41.64</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -2317,9 +2219,9 @@
         <v>43.16</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>2.59</v>
@@ -2394,9 +2296,9 @@
         <v>43.02</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>3.45</v>
@@ -2471,9 +2373,9 @@
         <v>42.08</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>3.19</v>
@@ -2556,223 +2458,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
